--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -505,7 +505,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -583,7 +585,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -661,7 +665,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -739,7 +745,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -817,7 +825,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Breva</t>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>7318</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1045</v>
+        <v>1714</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>2143</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>7318</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1857</v>
+        <v>1045</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1857</v>
+        <v>1714</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>7318</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1045</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>7318</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>1045</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1857</v>
+        <v>1714</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -840,35 +840,115 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>45</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>50</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>12000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>12000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>12000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>1714</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,31 +924,191 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>150</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 6 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>45</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>50</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N9" t="n">
         <v>12000</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O9" t="n">
         <v>12000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P9" t="n">
         <v>12000</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>1714</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T9" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,17 +687,17 @@
         <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,31 +1084,191 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>150</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 6 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>45</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>50</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N11" t="n">
         <v>12000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O11" t="n">
         <v>12000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>12000</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S11" t="n">
         <v>1714</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T11" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1240,35 +1240,115 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>50</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>12000</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>12000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>12000</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>1714</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1320,35 +1320,115 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>45</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44187</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M13" t="n">
         <v>50</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N13" t="n">
         <v>12000</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O13" t="n">
         <v>12000</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>12000</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S12" t="n">
+      <c r="S13" t="n">
         <v>1714</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T13" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>1714</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1857</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44561</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,17 +1327,17 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3429</v>
+        <v>1857</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44550</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>7318</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3429</v>
+        <v>1045</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1857</v>
+        <v>3429</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>7318</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1045</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>1714</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>7318</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1045</v>
+        <v>1714</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>2143</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
         <v>18000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44550</v>
+        <v>44572</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3429</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>1714</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>1714</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44550</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44561</v>
+        <v>44550</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,17 +1007,17 @@
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2143</v>
+        <v>3333</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3429</v>
+        <v>1857</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>22000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
         <v>18000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44572</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>7318</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1045</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3429</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44561</v>
+        <v>44558</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44572</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>7318</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3333</v>
+        <v>1045</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1714</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3429</v>
+        <v>1714</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>7318</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1045</v>
+        <v>2143</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44561</v>
+        <v>44550</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3429</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44572</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44561</v>
+        <v>44550</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3429</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44561</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1857</v>
+        <v>3333</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44561</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44204</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>7318</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>1714</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P7" t="n">
-        <v>13000</v>
+        <v>7318</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1857</v>
+        <v>1045</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3429</v>
+        <v>2143</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44561</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>7318</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1045</v>
+        <v>1714</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44204</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>7318</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44561</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1714</v>
+        <v>3333</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3429</v>
+        <v>1857</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44204</v>
+        <v>44550</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1045</v>
+        <v>3429</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44572</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44572</v>
+        <v>44550</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3333</v>
+        <v>3429</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44561</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44572</v>
+        <v>44561</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1714</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44561</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>7318</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1045</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1714</v>
+        <v>3333</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>22000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>1714</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>2143</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>3429</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44561</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44550</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1045</v>
+        <v>3429</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44550</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>3429</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>7318</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2143</v>
+        <v>1045</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>1714</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,17 +1327,17 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T5" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,17 +1087,17 @@
         <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>7318</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>3429</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3429</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1714</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>13000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1857</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
         <v>18000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44204</v>
+        <v>44561</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>3333</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1714</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>1714</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
         <v>18000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44561</v>
+        <v>44204</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44550</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44561</v>
+        <v>44204</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,17 +527,17 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>7318</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>1045</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1714</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>7318</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1045</v>
+        <v>1714</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44561</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3429</v>
+        <v>1857</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>22000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44572</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>7318</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1857</v>
+        <v>1045</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>22000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P11" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1714</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44550</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3429</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>7318</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1045</v>
+        <v>1857</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>22000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1857</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44561</v>
+        <v>44558</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44572</v>
+        <v>44561</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1714</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44561</v>
+        <v>44572</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1714</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>7318</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>1045</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44550</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1045</v>
+        <v>3429</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44561</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44204</v>
+        <v>44550</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O2" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P2" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1045</v>
+        <v>3429</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2143</v>
+        <v>3333</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1857</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44558</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44550</v>
+        <v>44572</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3429</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1857</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1857</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>7318</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1045</v>
+        <v>1714</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44561</v>
+        <v>44558</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>2143</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3667</v>
+        <v>1857</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44561</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1714</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3667</v>
+        <v>1714</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44550</v>
+        <v>44572</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3429</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44558</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44550</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1045</v>
+        <v>3429</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44572</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>6</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44558</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>7318</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1045</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1714</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44561</v>
+        <v>44550</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3429</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44550</v>
+        <v>44187</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3429</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44572</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1857</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>7318</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1045</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,17 +1327,17 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44187</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>7318</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1045</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44561</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44550</v>
+        <v>44561</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>3429</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1714</v>
+        <v>2143</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44572</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>1857</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44572</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,17 +1327,17 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44558</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>7318</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1045</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44561</v>
+        <v>44189</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44187</v>
+        <v>44561</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>7318</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1714</v>
+        <v>1045</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3667</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>1714</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,17 +1327,17 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3667</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44558</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1857</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44561</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3667</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>6</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44204</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>7318</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1045</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1857</v>
+        <v>1714</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44561</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44572</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>7318</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1045</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44572</v>
+        <v>44558</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44558</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44550</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1714</v>
+        <v>3429</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,17 +1327,17 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3667</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44558</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>1857</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44204</v>
+        <v>45274</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="P3" t="n">
-        <v>7318</v>
+        <v>24000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1045</v>
+        <v>4800</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44187</v>
+        <v>44204</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>7318</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1045</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1714</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3667</v>
+        <v>1714</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44572</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44550</v>
+        <v>44558</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3429</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44550</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>3429</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1400,35 +1400,115 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>2143</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M14" t="n">
         <v>30</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N14" t="n">
         <v>13000</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O14" t="n">
         <v>13000</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>13000</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>$/bandeja 7 kilos</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v>1857</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T14" t="n">
         <v>7</v>
       </c>
     </row>
